--- a/biology/Botanique/Vandeae/Vandeae.xlsx
+++ b/biology/Botanique/Vandeae/Vandeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu des Vandeae est une tribu de la sous-famille des Epidendroideae, famille des Orchidaceae.
-La classification phylogénétique sépare cette tribu en deux (NCBI), voire quatre, sous-tribus qui regroupent plus d'une centaine de genres d'orchidées. Cependant la classification actuelle est encore principalement basée sur des critères morphologiques[1] et devrait évoluer grâce aux analyses approfondies des différentes séquences ADN de chaque genre.
+La classification phylogénétique sépare cette tribu en deux (NCBI), voire quatre, sous-tribus qui regroupent plus d'une centaine de genres d'orchidées. Cependant la classification actuelle est encore principalement basée sur des critères morphologiques et devrait évoluer grâce aux analyses approfondies des différentes séquences ADN de chaque genre.
 </t>
         </is>
       </c>
@@ -512,12 +524,49 @@
           <t>Liste des sous-tribus et des genres selon NCBI[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">la base de données du NCBI répertorie uniquement les deux sous-tribus ci-dessous. D'autres sources citent également les sous-tribus des Polystachyinae (classée parmi les Epidendreae selon le NCBI) et des Aerangidinae (intégrée aux Angraecinae).
-Aeridinae Pfitzer 1887
-77 genres identifiés au 28 octobre 2010. Les genres et espèces de cette sous-tribu sont présents à l'état naturel sur les continents asiatique et australien (exception faite de deux espèces des genres Acampe et Taeniophyllum que l'on retrouve sur le continent africain).
-On trouve cette sous-tribu sous le nom de Sarcanthinae ou tribu des Sarcantheae[3] dans certains ouvrages. La plupart des espèces du genre Sarcanthus ayant été reclassées au sein du genre Cleisostoma[4], cette dénomination n'est plus considérée comme valide en taxonomie végétale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vandeae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vandeae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI[2]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aeridinae Pfitzer 1887</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">77 genres identifiés au 28 octobre 2010. Les genres et espèces de cette sous-tribu sont présents à l'état naturel sur les continents asiatique et australien (exception faite de deux espèces des genres Acampe et Taeniophyllum que l'on retrouve sur le continent africain).
+On trouve cette sous-tribu sous le nom de Sarcanthinae ou tribu des Sarcantheae dans certains ouvrages. La plupart des espèces du genre Sarcanthus ayant été reclassées au sein du genre Cleisostoma, cette dénomination n'est plus considérée comme valide en taxonomie végétale.
 Les noms de genre précédés d'une croix de multiplication « × » sont des hybrides inter-génériques.
 Abdominea J.J.Sm. 1914.
 Acampe Lindl. 1853.
@@ -552,8 +601,8 @@
 Holcoglossum Schltr. 1919.
 Hygrochilus Pfitzer in Engl. &amp; Prantl (eds.) 1897.
 Hymenorchis Schltr. 1913.
-Kingidium P.F.Hunt 1970[5].
-Lesliea Seidenf. 1988[6].
+Kingidium P.F.Hunt 1970.
+Lesliea Seidenf. 1988.
 Luisia Gaudich. 1829.
 Macropodanthus L.O.Williams 1938.
 Malleola J.J.Sm. &amp; Schltr. 1913.
@@ -573,7 +622,7 @@
 Pomatocalpa Breda, Kuhl &amp; Hasselt 1827.
 Pteroceras Hasselt ex Hassk. 1842.
 Renanthera Lour. 1790.
-Renantherella Ridl. 1896[7].
+Renantherella Ridl. 1896.
 Rhinerrhiza Rupp 1951.
 Rhynchostylis Blume 1825.
 Robiquetia Gaudich. 1829.
@@ -596,8 +645,43 @@
 Ventricularia Garay 1972.
 ×Doritaenopsis Guillaumin 1935.
 ×Mokara (Arachnis × Ascocentrum × Vanda)
-Angraecinae Summerh. 1966
-36 genres identifiés au 28 octobre 2010. L'aire de répartition géographique se situe principalement sur le continent africain et l'ile de Madagascar. Les genres Campylocentrum et Dendrophylax (continent américain) ainsi qu'une espèce du genre Angraecum et une du genre Aerangis (Sri Lanka) sont absents de ce continent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vandeae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vandeae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI[2]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Angraecinae Summerh. 1966</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">36 genres identifiés au 28 octobre 2010. L'aire de répartition géographique se situe principalement sur le continent africain et l'ile de Madagascar. Les genres Campylocentrum et Dendrophylax (continent américain) ainsi qu'une espèce du genre Angraecum et une du genre Aerangis (Sri Lanka) sont absents de ce continent.
 La sous-tribu des Aerangidinae est considérée comme synonyme d'Angraecinae par le NCBI alors que de nombreux ouvrages font une distinction entre les deux sous-tribus. Néanmoins toutes les publications récentes s'accordent pour considérer que ces deux sous-tribus forment un groupe monophylétique dénommé Angraecoids.
 Aerangis Rchb.f. 1865.
 Aeranthes Lindl. 1824.
@@ -606,7 +690,7 @@
 Angraecum Bory 1804. (Genre type)
 Beclardia A.Rich. 1828.
 Bolusiella Schltr. 1918.
-Bonniera Cordem. 1899[8].
+Bonniera Cordem. 1899.
 Calyptrochilum Kraenzl. 1895.
 Campylocentrum Benth. 1881.
 Chamaeangis Schltr. 1915.
@@ -635,26 +719,61 @@
 Sphyrarhynchus Mansf. 1935.
 Tridactyle Schltr. 1914.
 Ypsilopus Summerh. 1949.
-Genres absents de la base NCBI
-Liste des genres non référencés mais cités dans les ouvrages botaniques récents (publications de 2003[9], 2006 et 2007) et dont le nom est accepté par la liste des jardins botaniques royaux de Kew.
-Ambrella H.Perrier 1934.[10]
-Armodorum Breda 1827.[11]
-Cardiochilos P.J.Cribb 1977.[12]
-Chauliodon Summerh. 1943.[13]
-Cleisostomopsis Seidenf. 1992.[14]
-Deceptor Seidenf. 1992.[15]
-Dinklageella Mansf. 1934.[16]
-Distylodon Summerh. 1966.[17]
-Eggelingia Summerh. 1951.[18]
-Erasanthe P.J.Cribb, Hermans &amp; D.L.Roberts 2007.[19],[20]
-Margelliantha P.J.Cribb 1979.[21]
-Nephrangis Summerh. 1948.[22]
-Ossiculum P.J.Cribb &amp; Laan 1986.[23],[24]
-Parapteroceras Aver. 1990.[25]
-Rhaesteria Summerh. 1966.[26]
-Summerhayesia P.J.Cribb 1977.[27]
-Taeniorrhiza Summerh. 1943.[28]
-Triceratorhynchus Summerh. 1951.[29]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vandeae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vandeae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des sous-tribus et des genres selon NCBI[2]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genres absents de la base NCBI</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des genres non référencés mais cités dans les ouvrages botaniques récents (publications de 2003, 2006 et 2007) et dont le nom est accepté par la liste des jardins botaniques royaux de Kew.
+Ambrella H.Perrier 1934.
+Armodorum Breda 1827.
+Cardiochilos P.J.Cribb 1977.
+Chauliodon Summerh. 1943.
+Cleisostomopsis Seidenf. 1992.
+Deceptor Seidenf. 1992.
+Dinklageella Mansf. 1934.
+Distylodon Summerh. 1966.
+Eggelingia Summerh. 1951.
+Erasanthe P.J.Cribb, Hermans &amp; D.L.Roberts 2007.,
+Margelliantha P.J.Cribb 1979.
+Nephrangis Summerh. 1948.
+Ossiculum P.J.Cribb &amp; Laan 1986.,
+Parapteroceras Aver. 1990.
+Rhaesteria Summerh. 1966.
+Summerhayesia P.J.Cribb 1977.
+Taeniorrhiza Summerh. 1943.
+Triceratorhynchus Summerh. 1951.
 </t>
         </is>
       </c>
